--- a/biology/Histoire de la zoologie et de la botanique/Miklos_Udvardy/Miklos_Udvardy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Miklos_Udvardy/Miklos_Udvardy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miklos Dezso Ferenc Udvardy, né le 28 mars 1919 à Debrecen (Hongrie), décédé le 27 janvier 1998 à Sacramento (États-Unis), est un ornithologue et universitaire hongrois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La passion qu'il montre très jeune pour l'ornithologie n'est pas du goût de ses parents qui l'orientent vers des études de droit. Il fait son premier mémoire sur l'histoire de l'installation des tribus Petchénègues en Hongrie. Il se dirige alors vers des études de biologie et obtient un doctorat à l'université de Debrecen en 1942. Son premier poste est de biologiste à la station biologique de Tihanyi sur le lac Balaton.
 Il quitte la Hongrie en 1948 pour l'université d'Helsinki en Finlande où il travaille sous la direction de P. Palmgren.
